--- a/FitnessData/static1/pso/scheduling1_19.xlsx
+++ b/FitnessData/static1/pso/scheduling1_19.xlsx
@@ -1337,442 +1337,442 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>74.70999999999999</v>
+        <v>71.62</v>
       </c>
       <c r="B2" t="n">
-        <v>71.05</v>
+        <v>71.62</v>
       </c>
       <c r="C2" t="n">
-        <v>65.56999999999999</v>
+        <v>71.62</v>
       </c>
       <c r="D2" t="n">
-        <v>65.79000000000001</v>
+        <v>71.62</v>
       </c>
       <c r="E2" t="n">
-        <v>65.79000000000001</v>
+        <v>71.62</v>
       </c>
       <c r="F2" t="n">
-        <v>65.79000000000001</v>
+        <v>62.62</v>
       </c>
       <c r="G2" t="n">
-        <v>65.79000000000001</v>
+        <v>62.62</v>
       </c>
       <c r="H2" t="n">
-        <v>65.79000000000001</v>
+        <v>62.62</v>
       </c>
       <c r="I2" t="n">
-        <v>65.79000000000001</v>
+        <v>62.62</v>
       </c>
       <c r="J2" t="n">
-        <v>65.79000000000001</v>
+        <v>62.62</v>
       </c>
       <c r="K2" t="n">
-        <v>65.79000000000001</v>
+        <v>62.62</v>
       </c>
       <c r="L2" t="n">
-        <v>65.79000000000001</v>
+        <v>62.62</v>
       </c>
       <c r="M2" t="n">
-        <v>65.79000000000001</v>
+        <v>62.62</v>
       </c>
       <c r="N2" t="n">
-        <v>65.79000000000001</v>
+        <v>62.62</v>
       </c>
       <c r="O2" t="n">
-        <v>65.79000000000001</v>
+        <v>62.62</v>
       </c>
       <c r="P2" t="n">
-        <v>65.79000000000001</v>
+        <v>62.62</v>
       </c>
       <c r="Q2" t="n">
-        <v>65.79000000000001</v>
+        <v>63.9</v>
       </c>
       <c r="R2" t="n">
-        <v>65.79000000000001</v>
+        <v>63.9</v>
       </c>
       <c r="S2" t="n">
-        <v>65.79000000000001</v>
+        <v>63.9</v>
       </c>
       <c r="T2" t="n">
-        <v>65.79000000000001</v>
+        <v>63.9</v>
       </c>
       <c r="U2" t="n">
-        <v>65.79000000000001</v>
+        <v>63.9</v>
       </c>
       <c r="V2" t="n">
-        <v>65.79000000000001</v>
+        <v>63.9</v>
       </c>
       <c r="W2" t="n">
-        <v>65.79000000000001</v>
+        <v>63.9</v>
       </c>
       <c r="X2" t="n">
-        <v>65.79000000000001</v>
+        <v>63.9</v>
       </c>
       <c r="Y2" t="n">
-        <v>65.79000000000001</v>
+        <v>63.9</v>
       </c>
       <c r="Z2" t="n">
-        <v>65.79000000000001</v>
+        <v>63.9</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.79000000000001</v>
+        <v>63.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>65.79000000000001</v>
+        <v>62.27</v>
       </c>
       <c r="AC2" t="n">
-        <v>65.79000000000001</v>
+        <v>63.9</v>
       </c>
       <c r="AD2" t="n">
-        <v>65.79000000000001</v>
+        <v>63.9</v>
       </c>
       <c r="AE2" t="n">
-        <v>65.79000000000001</v>
+        <v>63.9</v>
       </c>
       <c r="AF2" t="n">
-        <v>65.79000000000001</v>
+        <v>63.9</v>
       </c>
       <c r="AG2" t="n">
-        <v>65.79000000000001</v>
+        <v>63.9</v>
       </c>
       <c r="AH2" t="n">
-        <v>61.5</v>
+        <v>62.27</v>
       </c>
       <c r="AI2" t="n">
-        <v>65.79000000000001</v>
+        <v>63.9</v>
       </c>
       <c r="AJ2" t="n">
-        <v>65.79000000000001</v>
+        <v>63.9</v>
       </c>
       <c r="AK2" t="n">
-        <v>65.79000000000001</v>
+        <v>63.9</v>
       </c>
       <c r="AL2" t="n">
-        <v>65.79000000000001</v>
+        <v>63.9</v>
       </c>
       <c r="AM2" t="n">
-        <v>65.79000000000001</v>
+        <v>62.65</v>
       </c>
       <c r="AN2" t="n">
-        <v>65.79000000000001</v>
+        <v>62.65</v>
       </c>
       <c r="AO2" t="n">
-        <v>61.34</v>
+        <v>61.78</v>
       </c>
       <c r="AP2" t="n">
-        <v>61.34</v>
+        <v>61.78</v>
       </c>
       <c r="AQ2" t="n">
-        <v>61.34</v>
+        <v>60.82</v>
       </c>
       <c r="AR2" t="n">
-        <v>61.34</v>
+        <v>60.82</v>
       </c>
       <c r="AS2" t="n">
-        <v>61.34</v>
+        <v>60.82</v>
       </c>
       <c r="AT2" t="n">
-        <v>61.34</v>
+        <v>60.82</v>
       </c>
       <c r="AU2" t="n">
-        <v>61.34</v>
+        <v>60.82</v>
       </c>
       <c r="AV2" t="n">
-        <v>61.34</v>
+        <v>60.82</v>
       </c>
       <c r="AW2" t="n">
-        <v>61.34</v>
+        <v>60.82</v>
       </c>
       <c r="AX2" t="n">
-        <v>61.34</v>
+        <v>60.82</v>
       </c>
       <c r="AY2" t="n">
-        <v>61.34</v>
+        <v>60.82</v>
       </c>
       <c r="AZ2" t="n">
-        <v>63.65</v>
+        <v>60.82</v>
       </c>
       <c r="BA2" t="n">
-        <v>61.34</v>
+        <v>60.82</v>
       </c>
       <c r="BB2" t="n">
-        <v>61.34</v>
+        <v>60.82</v>
       </c>
       <c r="BC2" t="n">
-        <v>61.34</v>
+        <v>60.82</v>
       </c>
       <c r="BD2" t="n">
-        <v>61.34</v>
+        <v>60.82</v>
       </c>
       <c r="BE2" t="n">
-        <v>61.34</v>
+        <v>60.82</v>
       </c>
       <c r="BF2" t="n">
-        <v>61.34</v>
+        <v>60.82</v>
       </c>
       <c r="BG2" t="n">
-        <v>61.34</v>
+        <v>60.82</v>
       </c>
       <c r="BH2" t="n">
-        <v>61.34</v>
+        <v>60.82</v>
       </c>
       <c r="BI2" t="n">
-        <v>61.34</v>
+        <v>60.82</v>
       </c>
       <c r="BJ2" t="n">
-        <v>65.79000000000001</v>
+        <v>60.82</v>
       </c>
       <c r="BK2" t="n">
-        <v>65.79000000000001</v>
+        <v>60.82</v>
       </c>
       <c r="BL2" t="n">
-        <v>61.34</v>
+        <v>60.82</v>
       </c>
       <c r="BM2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="BN2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="BO2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="BP2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="BQ2" t="n">
-        <v>65.79000000000001</v>
+        <v>63.96</v>
       </c>
       <c r="BR2" t="n">
-        <v>63.65</v>
+        <v>63.96</v>
       </c>
       <c r="BS2" t="n">
-        <v>63.65</v>
+        <v>63.96</v>
       </c>
       <c r="BT2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="BU2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="BV2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="BW2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="BX2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="BY2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="BZ2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="CA2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="CB2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="CC2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="CD2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="CE2" t="n">
-        <v>63.65</v>
+        <v>63.96</v>
       </c>
       <c r="CF2" t="n">
-        <v>65.79000000000001</v>
+        <v>63.96</v>
       </c>
       <c r="CG2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="CH2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="CI2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="CJ2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="CK2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="CL2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="CM2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="CN2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="CO2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="CP2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="CQ2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="CR2" t="n">
-        <v>63.65</v>
+        <v>63.96</v>
       </c>
       <c r="CS2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="CT2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="CU2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="CV2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="CW2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="CX2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="CY2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="CZ2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="DA2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="DB2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="DC2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="DD2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="DE2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="DF2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="DG2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="DH2" t="n">
-        <v>63.65</v>
+        <v>63.96</v>
       </c>
       <c r="DI2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="DJ2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="DK2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="DL2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="DM2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="DN2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="DO2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="DP2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="DQ2" t="n">
-        <v>65.79000000000001</v>
+        <v>63.96</v>
       </c>
       <c r="DR2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="DS2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="DT2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="DU2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="DV2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="DW2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="DX2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="DY2" t="n">
-        <v>65.79000000000001</v>
+        <v>63.96</v>
       </c>
       <c r="DZ2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="EA2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="EB2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="EC2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="ED2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="EE2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="EF2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="EG2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="EH2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="EI2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="EJ2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="EK2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="EL2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="EM2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="EN2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="EO2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="EP2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="EQ2" t="n">
         <v>63.96</v>
@@ -1850,7 +1850,7 @@
         <v>63.96</v>
       </c>
       <c r="FP2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="FQ2" t="n">
         <v>63.96</v>
@@ -1910,7 +1910,7 @@
         <v>63.96</v>
       </c>
       <c r="GJ2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="GK2" t="n">
         <v>63.96</v>
@@ -1964,7 +1964,7 @@
         <v>63.96</v>
       </c>
       <c r="HB2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="HC2" t="n">
         <v>63.96</v>
@@ -2120,7 +2120,7 @@
         <v>63.96</v>
       </c>
       <c r="JB2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="JC2" t="n">
         <v>63.96</v>
@@ -2138,7 +2138,7 @@
         <v>63.96</v>
       </c>
       <c r="JH2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="JI2" t="n">
         <v>63.96</v>
@@ -2168,7 +2168,7 @@
         <v>63.96</v>
       </c>
       <c r="JR2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="JS2" t="n">
         <v>63.96</v>
@@ -2207,7 +2207,7 @@
         <v>63.96</v>
       </c>
       <c r="KE2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="KF2" t="n">
         <v>63.96</v>
@@ -2225,7 +2225,7 @@
         <v>63.96</v>
       </c>
       <c r="KK2" t="n">
-        <v>61.34</v>
+        <v>63.96</v>
       </c>
       <c r="KL2" t="n">
         <v>63.96</v>
@@ -2239,442 +2239,442 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131.84</v>
+        <v>100</v>
       </c>
       <c r="B3" t="n">
-        <v>128.62</v>
+        <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>104.34</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>88.92</v>
+        <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>88.92</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>88.92</v>
+        <v>119.4</v>
       </c>
       <c r="G3" t="n">
-        <v>88.92</v>
+        <v>119.4</v>
       </c>
       <c r="H3" t="n">
-        <v>88.92</v>
+        <v>119.4</v>
       </c>
       <c r="I3" t="n">
-        <v>88.92</v>
+        <v>119.4</v>
       </c>
       <c r="J3" t="n">
-        <v>88.92</v>
+        <v>119.4</v>
       </c>
       <c r="K3" t="n">
-        <v>88.92</v>
+        <v>119.4</v>
       </c>
       <c r="L3" t="n">
-        <v>88.92</v>
+        <v>119.4</v>
       </c>
       <c r="M3" t="n">
-        <v>88.92</v>
+        <v>119.4</v>
       </c>
       <c r="N3" t="n">
-        <v>88.92</v>
+        <v>119.4</v>
       </c>
       <c r="O3" t="n">
-        <v>88.92</v>
+        <v>119.4</v>
       </c>
       <c r="P3" t="n">
-        <v>88.92</v>
+        <v>119.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>88.92</v>
+        <v>108.42</v>
       </c>
       <c r="R3" t="n">
-        <v>88.92</v>
+        <v>108.42</v>
       </c>
       <c r="S3" t="n">
-        <v>88.92</v>
+        <v>108.42</v>
       </c>
       <c r="T3" t="n">
-        <v>88.92</v>
+        <v>108.42</v>
       </c>
       <c r="U3" t="n">
-        <v>88.92</v>
+        <v>108.42</v>
       </c>
       <c r="V3" t="n">
-        <v>88.92</v>
+        <v>108.42</v>
       </c>
       <c r="W3" t="n">
-        <v>88.92</v>
+        <v>108.42</v>
       </c>
       <c r="X3" t="n">
-        <v>88.92</v>
+        <v>108.42</v>
       </c>
       <c r="Y3" t="n">
-        <v>88.92</v>
+        <v>108.42</v>
       </c>
       <c r="Z3" t="n">
-        <v>88.92</v>
+        <v>108.42</v>
       </c>
       <c r="AA3" t="n">
-        <v>88.92</v>
+        <v>108.42</v>
       </c>
       <c r="AB3" t="n">
-        <v>88.92</v>
+        <v>114.4</v>
       </c>
       <c r="AC3" t="n">
-        <v>88.92</v>
+        <v>108.42</v>
       </c>
       <c r="AD3" t="n">
-        <v>88.92</v>
+        <v>108.42</v>
       </c>
       <c r="AE3" t="n">
-        <v>88.92</v>
+        <v>108.42</v>
       </c>
       <c r="AF3" t="n">
-        <v>88.92</v>
+        <v>108.42</v>
       </c>
       <c r="AG3" t="n">
-        <v>88.92</v>
+        <v>108.42</v>
       </c>
       <c r="AH3" t="n">
-        <v>106.12</v>
+        <v>114.4</v>
       </c>
       <c r="AI3" t="n">
-        <v>88.92</v>
+        <v>108.42</v>
       </c>
       <c r="AJ3" t="n">
-        <v>88.92</v>
+        <v>108.42</v>
       </c>
       <c r="AK3" t="n">
-        <v>88.92</v>
+        <v>108.42</v>
       </c>
       <c r="AL3" t="n">
-        <v>88.92</v>
+        <v>108.42</v>
       </c>
       <c r="AM3" t="n">
-        <v>88.92</v>
+        <v>108.42</v>
       </c>
       <c r="AN3" t="n">
-        <v>88.92</v>
+        <v>108.42</v>
       </c>
       <c r="AO3" t="n">
-        <v>100.98</v>
+        <v>107.7</v>
       </c>
       <c r="AP3" t="n">
-        <v>100.98</v>
+        <v>107.7</v>
       </c>
       <c r="AQ3" t="n">
-        <v>100.98</v>
+        <v>107.7</v>
       </c>
       <c r="AR3" t="n">
-        <v>100.98</v>
+        <v>107.7</v>
       </c>
       <c r="AS3" t="n">
-        <v>100.98</v>
+        <v>107.7</v>
       </c>
       <c r="AT3" t="n">
-        <v>100.98</v>
+        <v>107.7</v>
       </c>
       <c r="AU3" t="n">
-        <v>100.98</v>
+        <v>107.7</v>
       </c>
       <c r="AV3" t="n">
-        <v>100.98</v>
+        <v>107.7</v>
       </c>
       <c r="AW3" t="n">
-        <v>100.98</v>
+        <v>107.7</v>
       </c>
       <c r="AX3" t="n">
-        <v>100.98</v>
+        <v>107.7</v>
       </c>
       <c r="AY3" t="n">
-        <v>100.98</v>
+        <v>107.7</v>
       </c>
       <c r="AZ3" t="n">
-        <v>94.5</v>
+        <v>107.7</v>
       </c>
       <c r="BA3" t="n">
-        <v>100.98</v>
+        <v>107.7</v>
       </c>
       <c r="BB3" t="n">
-        <v>100.98</v>
+        <v>107.7</v>
       </c>
       <c r="BC3" t="n">
-        <v>100.98</v>
+        <v>107.7</v>
       </c>
       <c r="BD3" t="n">
-        <v>100.98</v>
+        <v>107.7</v>
       </c>
       <c r="BE3" t="n">
-        <v>100.98</v>
+        <v>107.7</v>
       </c>
       <c r="BF3" t="n">
-        <v>100.98</v>
+        <v>107.7</v>
       </c>
       <c r="BG3" t="n">
-        <v>100.98</v>
+        <v>107.7</v>
       </c>
       <c r="BH3" t="n">
-        <v>100.98</v>
+        <v>107.7</v>
       </c>
       <c r="BI3" t="n">
-        <v>100.98</v>
+        <v>107.7</v>
       </c>
       <c r="BJ3" t="n">
-        <v>88.92</v>
+        <v>107.7</v>
       </c>
       <c r="BK3" t="n">
-        <v>88.92</v>
+        <v>107.7</v>
       </c>
       <c r="BL3" t="n">
-        <v>100.98</v>
+        <v>107.7</v>
       </c>
       <c r="BM3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="BN3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="BO3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="BP3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="BQ3" t="n">
         <v>88.92</v>
       </c>
       <c r="BR3" t="n">
-        <v>94.5</v>
+        <v>88.92</v>
       </c>
       <c r="BS3" t="n">
-        <v>94.5</v>
+        <v>88.92</v>
       </c>
       <c r="BT3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="BU3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="BV3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="BW3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="BX3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="BY3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="BZ3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="CA3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="CB3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="CC3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="CD3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="CE3" t="n">
-        <v>94.5</v>
+        <v>88.92</v>
       </c>
       <c r="CF3" t="n">
         <v>88.92</v>
       </c>
       <c r="CG3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="CH3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="CI3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="CJ3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="CK3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="CL3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="CM3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="CN3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="CO3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="CP3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="CQ3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="CR3" t="n">
-        <v>94.5</v>
+        <v>88.92</v>
       </c>
       <c r="CS3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="CT3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="CU3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="CV3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="CW3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="CX3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="CY3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="CZ3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="DA3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="DB3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="DC3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="DD3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="DE3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="DF3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="DG3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="DH3" t="n">
-        <v>94.5</v>
+        <v>88.92</v>
       </c>
       <c r="DI3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="DJ3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="DK3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="DL3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="DM3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="DN3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="DO3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="DP3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="DQ3" t="n">
         <v>88.92</v>
       </c>
       <c r="DR3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="DS3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="DT3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="DU3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="DV3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="DW3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="DX3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="DY3" t="n">
         <v>88.92</v>
       </c>
       <c r="DZ3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="EA3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="EB3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="EC3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="ED3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="EE3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="EF3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="EG3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="EH3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="EI3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="EJ3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="EK3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="EL3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="EM3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="EN3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="EO3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="EP3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="EQ3" t="n">
         <v>88.92</v>
@@ -2752,7 +2752,7 @@
         <v>88.92</v>
       </c>
       <c r="FP3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="FQ3" t="n">
         <v>88.92</v>
@@ -2812,7 +2812,7 @@
         <v>88.92</v>
       </c>
       <c r="GJ3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="GK3" t="n">
         <v>88.92</v>
@@ -2866,7 +2866,7 @@
         <v>88.92</v>
       </c>
       <c r="HB3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="HC3" t="n">
         <v>88.92</v>
@@ -3022,7 +3022,7 @@
         <v>88.92</v>
       </c>
       <c r="JB3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="JC3" t="n">
         <v>88.92</v>
@@ -3040,7 +3040,7 @@
         <v>88.92</v>
       </c>
       <c r="JH3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="JI3" t="n">
         <v>88.92</v>
@@ -3070,7 +3070,7 @@
         <v>88.92</v>
       </c>
       <c r="JR3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="JS3" t="n">
         <v>88.92</v>
@@ -3109,7 +3109,7 @@
         <v>88.92</v>
       </c>
       <c r="KE3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="KF3" t="n">
         <v>88.92</v>
@@ -3127,7 +3127,7 @@
         <v>88.92</v>
       </c>
       <c r="KK3" t="n">
-        <v>100.98</v>
+        <v>88.92</v>
       </c>
       <c r="KL3" t="n">
         <v>88.92</v>
